--- a/GreyBox/SupplementaryFiles/SystemConfigurations/NETS_NYPS_68bus_tuned_gov_FS.xlsx
+++ b/GreyBox/SupplementaryFiles/SystemConfigurations/NETS_NYPS_68bus_tuned_gov_FS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Greybox_Case_Study\Examples\Paper_GreyBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luteb\Documents\GitHub\Publications\GreyBox\SupplementaryFiles\SystemConfigurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4C6CB-63D1-4961-914C-5AF22DB544E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF097C-856E-41F4-A906-6EF82965A698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="3060" windowWidth="27045" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Zhu, Yue:</t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Type 30: 8th order synchronous machine
@@ -568,21 +568,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,7 +591,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -599,7 +599,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -607,7 +607,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,13 +615,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -634,7 +634,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -667,14 +667,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -687,7 +687,7 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -703,19 +703,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -771,21 +758,21 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -808,13 +795,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -831,22 +818,22 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1131,23 +1118,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1179,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1211,7 +1198,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1243,7 +1230,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1275,7 +1262,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1307,7 +1294,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1339,7 +1326,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1371,7 +1358,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1403,7 +1390,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1435,7 +1422,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1467,7 +1454,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1499,7 +1486,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1531,7 +1518,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1563,7 +1550,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1595,7 +1582,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1627,7 +1614,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1659,7 +1646,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -1691,7 +1678,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1724,7 +1711,7 @@
       </c>
       <c r="L19" s="33"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1757,7 +1744,7 @@
       </c>
       <c r="L20" s="33"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1790,7 +1777,7 @@
       </c>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1823,7 +1810,7 @@
       </c>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1856,7 +1843,7 @@
       </c>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1889,7 +1876,7 @@
       </c>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1922,7 +1909,7 @@
       </c>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1955,7 +1942,7 @@
       </c>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1988,7 +1975,7 @@
       </c>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -2021,7 +2008,7 @@
       </c>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -2054,7 +2041,7 @@
       </c>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -2087,7 +2074,7 @@
       </c>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2120,7 +2107,7 @@
       </c>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2153,7 +2140,7 @@
       </c>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -2186,7 +2173,7 @@
       </c>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -2219,7 +2206,7 @@
       </c>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -2252,7 +2239,7 @@
       </c>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -2285,7 +2272,7 @@
       </c>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -2318,7 +2305,7 @@
       </c>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -2351,7 +2338,7 @@
       </c>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -2384,7 +2371,7 @@
       </c>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -2417,7 +2404,7 @@
       </c>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -2450,7 +2437,7 @@
       </c>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -2483,7 +2470,7 @@
       </c>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -2516,7 +2503,7 @@
       </c>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -2549,7 +2536,7 @@
       </c>
       <c r="L44" s="33"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -2582,7 +2569,7 @@
       </c>
       <c r="L45" s="33"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -2615,7 +2602,7 @@
       </c>
       <c r="L46" s="33"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -2648,7 +2635,7 @@
       </c>
       <c r="L47" s="33"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -2681,7 +2668,7 @@
       </c>
       <c r="L48" s="33"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -2714,7 +2701,7 @@
       </c>
       <c r="L49" s="33"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -2747,7 +2734,7 @@
       </c>
       <c r="L50" s="33"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -2780,7 +2767,7 @@
       </c>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -2813,7 +2800,7 @@
       </c>
       <c r="L52" s="33"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -2846,7 +2833,7 @@
       </c>
       <c r="L53" s="33"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -2879,7 +2866,7 @@
       </c>
       <c r="L54" s="33"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -2912,7 +2899,7 @@
       </c>
       <c r="L55" s="33"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -2945,7 +2932,7 @@
       </c>
       <c r="L56" s="33"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -2978,7 +2965,7 @@
       </c>
       <c r="L57" s="33"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -3011,7 +2998,7 @@
       </c>
       <c r="L58" s="33"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -3044,7 +3031,7 @@
       </c>
       <c r="L59" s="33"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3077,7 +3064,7 @@
       </c>
       <c r="L60" s="33"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3110,7 +3097,7 @@
       </c>
       <c r="L61" s="33"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3143,7 +3130,7 @@
       </c>
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3176,7 +3163,7 @@
       </c>
       <c r="L63" s="33"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3209,7 +3196,7 @@
       </c>
       <c r="L64" s="33"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3242,7 +3229,7 @@
       </c>
       <c r="L65" s="33"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3275,7 +3262,7 @@
       </c>
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3308,7 +3295,7 @@
       </c>
       <c r="L67" s="33"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3341,7 +3328,7 @@
       </c>
       <c r="L68" s="33"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3374,7 +3361,7 @@
       </c>
       <c r="L69" s="33"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3416,36 +3403,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AQ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="30">
+    <row r="2" spans="1:43" ht="36.75" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>98</v>
       </c>
@@ -3471,7 +3461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="30">
+    <row r="3" spans="1:43" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B3" s="29" t="s">
         <v>99</v>
       </c>
@@ -3506,10 +3496,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="C5" s="30" t="s">
         <v>91</v>
@@ -3559,7 +3549,7 @@
       <c r="AP5" s="17"/>
       <c r="AQ5" s="17"/>
     </row>
-    <row r="6" spans="1:43" s="14" customFormat="1" ht="23.25" customHeight="1">
+    <row r="6" spans="1:43" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="C6" s="20" t="s">
         <v>48</v>
@@ -3685,7 +3675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3696,7 +3686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="41" customFormat="1">
+    <row r="8" spans="1:43" s="41" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -3747,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -3879,7 +3869,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -4011,7 +4001,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -4143,7 +4133,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -4275,7 +4265,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -4407,7 +4397,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>7</v>
       </c>
@@ -4539,7 +4529,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>8</v>
       </c>
@@ -4671,7 +4661,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>9</v>
       </c>
@@ -4803,7 +4793,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>10</v>
       </c>
@@ -4935,7 +4925,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>11</v>
       </c>
@@ -5067,7 +5057,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>12</v>
       </c>
@@ -5199,7 +5189,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:43" s="21" customFormat="1">
+    <row r="20" spans="1:43" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22">
         <v>13</v>
       </c>
@@ -5250,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>14</v>
       </c>
@@ -5301,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A22" s="28">
         <v>15</v>
       </c>
@@ -5339,7 +5329,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="37" customFormat="1">
+    <row r="23" spans="1:43" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="34">
         <v>16</v>
       </c>
@@ -5471,7 +5461,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>17</v>
       </c>
@@ -5500,7 +5490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -5515,7 +5505,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -5524,7 +5514,7 @@
       </c>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>20</v>
       </c>
@@ -5533,7 +5523,7 @@
       </c>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>21</v>
       </c>
@@ -5542,7 +5532,7 @@
       </c>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>22</v>
       </c>
@@ -5551,7 +5541,7 @@
       </c>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>23</v>
       </c>
@@ -5560,7 +5550,7 @@
       </c>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>24</v>
       </c>
@@ -5569,7 +5559,7 @@
       </c>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>25</v>
       </c>
@@ -5580,7 +5570,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>26</v>
       </c>
@@ -5609,7 +5599,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <v>27</v>
       </c>
@@ -5618,7 +5608,7 @@
       </c>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <v>28</v>
       </c>
@@ -5647,7 +5637,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>29</v>
       </c>
@@ -5676,7 +5666,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>30</v>
       </c>
@@ -5691,7 +5681,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -5706,7 +5696,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -5721,7 +5711,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -5736,7 +5726,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -5745,7 +5735,7 @@
       </c>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>35</v>
       </c>
@@ -5754,7 +5744,7 @@
       </c>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>36</v>
       </c>
@@ -5763,7 +5753,7 @@
       </c>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>37</v>
       </c>
@@ -5772,7 +5762,7 @@
       </c>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>38</v>
       </c>
@@ -5787,7 +5777,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>39</v>
       </c>
@@ -5796,7 +5786,7 @@
       </c>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -5805,7 +5795,7 @@
       </c>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -5820,7 +5810,7 @@
       <c r="H48" s="33"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -5829,7 +5819,7 @@
       </c>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -5838,7 +5828,7 @@
       </c>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>44</v>
       </c>
@@ -5847,7 +5837,7 @@
       </c>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>45</v>
       </c>
@@ -5856,7 +5846,7 @@
       </c>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>46</v>
       </c>
@@ -5865,7 +5855,7 @@
       </c>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -5874,7 +5864,7 @@
       </c>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -5883,7 +5873,7 @@
       </c>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -5892,7 +5882,7 @@
       </c>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>50</v>
       </c>
@@ -5901,7 +5891,7 @@
       </c>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -5910,7 +5900,7 @@
       </c>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>52</v>
       </c>
@@ -5925,7 +5915,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="43"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="6">
         <v>53</v>
       </c>
@@ -5940,7 +5930,7 @@
       <c r="H60" s="33"/>
       <c r="I60" s="42"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="6">
         <v>54</v>
       </c>
@@ -5955,7 +5945,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="44"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -5970,7 +5960,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="43"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="6">
         <v>56</v>
       </c>
@@ -5979,7 +5969,7 @@
       </c>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="6">
         <v>57</v>
       </c>
@@ -5994,7 +5984,7 @@
       <c r="H64" s="33"/>
       <c r="I64" s="42"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>58</v>
       </c>
@@ -6023,7 +6013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>59</v>
       </c>
@@ -6052,7 +6042,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>60</v>
       </c>
@@ -6067,7 +6057,7 @@
       <c r="H67" s="33"/>
       <c r="I67" s="42"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>61</v>
       </c>
@@ -6076,7 +6066,7 @@
       </c>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>62</v>
       </c>
@@ -6085,7 +6075,7 @@
       </c>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>63</v>
       </c>
@@ -6094,7 +6084,7 @@
       </c>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>64</v>
       </c>
@@ -6103,7 +6093,7 @@
       </c>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>65</v>
       </c>
@@ -6112,7 +6102,7 @@
       </c>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>66</v>
       </c>
@@ -6121,7 +6111,7 @@
       </c>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>67</v>
       </c>
@@ -6130,7 +6120,7 @@
       </c>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>68</v>
       </c>
@@ -6145,13 +6135,13 @@
       <c r="H75" s="33"/>
       <c r="I75" s="42"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I76" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="36" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6164,20 +6154,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6185,7 +6175,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -6193,7 +6183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6201,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6224,18 +6214,18 @@
       <selection activeCell="A3" sqref="A3:G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -6273,33 +6263,33 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -6322,7 +6312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>16</v>
       </c>
@@ -6346,7 +6336,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6370,7 +6360,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6394,7 +6384,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6418,7 +6408,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -6442,7 +6432,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6466,7 +6456,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -6490,7 +6480,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -6514,7 +6504,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -6538,7 +6528,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -6562,7 +6552,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -6586,7 +6576,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -6610,7 +6600,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6634,7 +6624,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -6658,7 +6648,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -6682,7 +6672,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>1</v>
       </c>
@@ -6706,7 +6696,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -6730,7 +6720,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -6754,7 +6744,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>18</v>
       </c>
@@ -6778,7 +6768,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>19</v>
       </c>
@@ -6802,7 +6792,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>20</v>
       </c>
@@ -6826,7 +6816,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>21</v>
       </c>
@@ -6850,7 +6840,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>22</v>
       </c>
@@ -6874,7 +6864,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>23</v>
       </c>
@@ -6898,7 +6888,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>24</v>
       </c>
@@ -6922,7 +6912,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>24</v>
       </c>
@@ -6946,7 +6936,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>25</v>
       </c>
@@ -6970,7 +6960,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>26</v>
       </c>
@@ -6994,7 +6984,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>27</v>
       </c>
@@ -7018,7 +7008,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>27</v>
       </c>
@@ -7042,7 +7032,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>28</v>
       </c>
@@ -7066,7 +7056,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>29</v>
       </c>
@@ -7090,7 +7080,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>29</v>
       </c>
@@ -7114,7 +7104,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>30</v>
       </c>
@@ -7138,7 +7128,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>30</v>
       </c>
@@ -7162,7 +7152,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>31</v>
       </c>
@@ -7186,7 +7176,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>31</v>
       </c>
@@ -7210,7 +7200,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>32</v>
       </c>
@@ -7234,7 +7224,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>33</v>
       </c>
@@ -7258,7 +7248,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34</v>
       </c>
@@ -7282,7 +7272,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34</v>
       </c>
@@ -7306,7 +7296,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>36</v>
       </c>
@@ -7330,7 +7320,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>36</v>
       </c>
@@ -7354,7 +7344,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>37</v>
       </c>
@@ -7378,7 +7368,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>38</v>
       </c>
@@ -7402,7 +7392,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>38</v>
       </c>
@@ -7426,7 +7416,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>40</v>
       </c>
@@ -7450,7 +7440,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>40</v>
       </c>
@@ -7474,7 +7464,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>41</v>
       </c>
@@ -7498,7 +7488,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>42</v>
       </c>
@@ -7522,7 +7512,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>43</v>
       </c>
@@ -7546,7 +7536,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>44</v>
       </c>
@@ -7570,7 +7560,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>44</v>
       </c>
@@ -7594,7 +7584,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>45</v>
       </c>
@@ -7618,7 +7608,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>45</v>
       </c>
@@ -7642,7 +7632,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>45</v>
       </c>
@@ -7666,7 +7656,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>46</v>
       </c>
@@ -7690,7 +7680,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>47</v>
       </c>
@@ -7714,7 +7704,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>48</v>
       </c>
@@ -7738,7 +7728,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>49</v>
       </c>
@@ -7762,7 +7752,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>51</v>
       </c>
@@ -7786,7 +7776,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>51</v>
       </c>
@@ -7810,7 +7800,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>52</v>
       </c>
@@ -7834,7 +7824,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>52</v>
       </c>
@@ -7858,7 +7848,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>54</v>
       </c>
@@ -7882,7 +7872,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>55</v>
       </c>
@@ -7906,7 +7896,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>56</v>
       </c>
@@ -7930,7 +7920,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>57</v>
       </c>
@@ -7954,7 +7944,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>58</v>
       </c>
@@ -7978,7 +7968,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>59</v>
       </c>
@@ -8002,7 +7992,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>60</v>
       </c>
@@ -8026,7 +8016,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>60</v>
       </c>
@@ -8050,7 +8040,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>61</v>
       </c>
@@ -8074,7 +8064,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>63</v>
       </c>
@@ -8098,7 +8088,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>63</v>
       </c>
@@ -8122,7 +8112,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>63</v>
       </c>
@@ -8146,7 +8136,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>65</v>
       </c>
@@ -8170,7 +8160,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>65</v>
       </c>
@@ -8194,7 +8184,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>66</v>
       </c>
@@ -8218,7 +8208,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>66</v>
       </c>
@@ -8242,7 +8232,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>67</v>
       </c>
@@ -8266,7 +8256,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>68</v>
       </c>
@@ -8290,7 +8280,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>27</v>
       </c>
@@ -8329,17 +8319,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -8348,7 +8338,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -8356,7 +8346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8364,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -8372,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -8380,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -8388,7 +8378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8396,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8404,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -8412,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8420,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8428,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>45</v>
       </c>
